--- a/src/common/message.xlsx
+++ b/src/common/message.xlsx
@@ -3556,8 +3556,8 @@
   <sheetPr/>
   <dimension ref="A1:K149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A131" workbookViewId="0">
-      <selection activeCell="A131" sqref="A131"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15.75"/>

--- a/src/common/message.xlsx
+++ b/src/common/message.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="589">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="591">
   <si>
     <t>MessageCode</t>
   </si>
@@ -2207,6 +2207,12 @@
   </si>
   <si>
     <t>顶是无效的</t>
+  </si>
+  <si>
+    <t>INPUT_TYPE_ERROR</t>
+  </si>
+  <si>
+    <t>Loại không được bỏ trống</t>
   </si>
 </sst>
 </file>
@@ -3554,10 +3560,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K149"/>
+  <dimension ref="A1:K150"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="B151" sqref="B151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15.75"/>
@@ -6642,6 +6648,14 @@
         <v>588</v>
       </c>
     </row>
+    <row r="150" spans="1:2">
+      <c r="A150" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>590</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/src/common/message.xlsx
+++ b/src/common/message.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20475" windowHeight="8250"/>
+    <workbookView windowWidth="19650" windowHeight="8250"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="591">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="593">
   <si>
     <t>MessageCode</t>
   </si>
@@ -2213,6 +2213,12 @@
   </si>
   <si>
     <t>Loại không được bỏ trống</t>
+  </si>
+  <si>
+    <t>INPUT_RECIPE_ERROR</t>
+  </si>
+  <si>
+    <t>Công thức không được bỏ trống</t>
   </si>
 </sst>
 </file>
@@ -3560,9 +3566,9 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K150"/>
+  <dimension ref="A1:K151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A135" workbookViewId="0">
       <selection activeCell="B151" sqref="B151"/>
     </sheetView>
   </sheetViews>
@@ -6656,6 +6662,14 @@
         <v>590</v>
       </c>
     </row>
+    <row r="151" spans="1:2">
+      <c r="A151" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>592</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/src/common/message.xlsx
+++ b/src/common/message.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19650" windowHeight="8250"/>
+    <workbookView windowWidth="20475" windowHeight="8250"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="593">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="597">
   <si>
     <t>MessageCode</t>
   </si>
@@ -2219,6 +2219,18 @@
   </si>
   <si>
     <t>Công thức không được bỏ trống</t>
+  </si>
+  <si>
+    <t>DELETE_INGREDIENT_ERROR</t>
+  </si>
+  <si>
+    <t>Xoá thất bại. Đang có công thức sử dụng nguyên liệu này</t>
+  </si>
+  <si>
+    <t>UNDELETE_INGREDIENT_SUCCESS</t>
+  </si>
+  <si>
+    <t>Nguyên liệu đã có thể sử dụng trở lại</t>
   </si>
 </sst>
 </file>
@@ -3566,10 +3578,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K151"/>
+  <dimension ref="A1:K153"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A135" workbookViewId="0">
-      <selection activeCell="B151" sqref="B151"/>
+      <selection activeCell="B154" sqref="B154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15.75"/>
@@ -6670,6 +6682,22 @@
         <v>592</v>
       </c>
     </row>
+    <row r="152" spans="1:2">
+      <c r="A152" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>596</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/src/common/message.xlsx
+++ b/src/common/message.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="597">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="601">
   <si>
     <t>MessageCode</t>
   </si>
@@ -2231,6 +2231,18 @@
   </si>
   <si>
     <t>Nguyên liệu đã có thể sử dụng trở lại</t>
+  </si>
+  <si>
+    <t>UNDELETE_RECIPE_SUCCESS</t>
+  </si>
+  <si>
+    <t>Công thức đã có thể sử dụng trở lại</t>
+  </si>
+  <si>
+    <t>DELETE_ERROR</t>
+  </si>
+  <si>
+    <t>Xoá thất bại</t>
   </si>
 </sst>
 </file>
@@ -3578,10 +3590,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K153"/>
+  <dimension ref="A1:K155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A135" workbookViewId="0">
-      <selection activeCell="B154" sqref="B154"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15.75"/>
@@ -6698,6 +6710,22 @@
         <v>596</v>
       </c>
     </row>
+    <row r="154" spans="1:2">
+      <c r="A154" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/src/common/message.xlsx
+++ b/src/common/message.xlsx
@@ -19,7 +19,7 @@
     <t>MessageCode</t>
   </si>
   <si>
-    <t>VN</t>
+    <t>VI</t>
   </si>
   <si>
     <t>EN</t>
@@ -3592,8 +3592,8 @@
   <sheetPr/>
   <dimension ref="A1:K155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15.75"/>

--- a/src/common/message.xlsx
+++ b/src/common/message.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="601">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="617">
   <si>
     <t>MessageCode</t>
   </si>
@@ -2215,34 +2215,194 @@
     <t>Loại không được bỏ trống</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>The type is not vacant</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>类型不是空置的</t>
+    </r>
+  </si>
+  <si>
     <t>INPUT_RECIPE_ERROR</t>
   </si>
   <si>
     <t>Công thức không được bỏ trống</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>The formula is not blank</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>公式不是空白</t>
+    </r>
+  </si>
+  <si>
     <t>DELETE_INGREDIENT_ERROR</t>
   </si>
   <si>
     <t>Xoá thất bại. Đang có công thức sử dụng nguyên liệu này</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Erase failure. There is a formula to use this material</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>擦除失败。有一个使用此材料的公式</t>
+    </r>
+  </si>
+  <si>
     <t>UNDELETE_INGREDIENT_SUCCESS</t>
   </si>
   <si>
     <t>Nguyên liệu đã có thể sử dụng trở lại</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Raw materials can be used again</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>原材料可以再次使用</t>
+    </r>
+  </si>
+  <si>
     <t>UNDELETE_RECIPE_SUCCESS</t>
   </si>
   <si>
     <t>Công thức đã có thể sử dụng trở lại</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>The formula can be used again</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>该公式可以再次使用</t>
+    </r>
+  </si>
+  <si>
     <t>DELETE_ERROR</t>
   </si>
   <si>
     <t>Xoá thất bại</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Erase failure</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>擦除失败</t>
+    </r>
+  </si>
+  <si>
+    <t>CART_QUANTITY_ERROR</t>
+  </si>
+  <si>
+    <t>Cửa hàng chỉ phục vụ tối đa 20 sản phẩm / 1 lần đặt</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>The store only serves up to 20 products / 1 time</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>该商店最多可提供20种产品 / 1次</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -2255,7 +2415,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2296,6 +2456,12 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2637,7 +2803,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -2657,73 +2823,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2845,137 +2944,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2985,11 +3084,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2998,13 +3097,13 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
@@ -3015,8 +3114,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3030,14 +3129,23 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
@@ -3048,13 +3156,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
@@ -3590,26 +3705,26 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K155"/>
+  <dimension ref="A1:K156"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="35.7142857142857" style="1" customWidth="1"/>
-    <col min="2" max="2" width="68.1619047619048" style="1" customWidth="1"/>
-    <col min="3" max="3" width="62.1428571428571" style="1" customWidth="1"/>
-    <col min="4" max="4" width="31.2857142857143" style="1" customWidth="1"/>
+    <col min="2" max="2" width="74" style="1" customWidth="1"/>
+    <col min="3" max="3" width="61.8571428571429" style="1" customWidth="1"/>
+    <col min="4" max="4" width="49.4285714285714" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9.14285714285714" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" spans="1:11">
+    <row r="1" spans="1:11">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
@@ -3626,7 +3741,7 @@
       <c r="J1" s="5"/>
       <c r="K1" s="15"/>
     </row>
-    <row r="2" ht="16.5" spans="1:11">
+    <row r="2" spans="1:11">
       <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
@@ -3647,7 +3762,7 @@
       <c r="J2" s="16"/>
       <c r="K2" s="15"/>
     </row>
-    <row r="3" ht="16.5" spans="1:11">
+    <row r="3" spans="1:11">
       <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
@@ -3668,7 +3783,7 @@
       <c r="J3" s="17"/>
       <c r="K3" s="15"/>
     </row>
-    <row r="4" ht="16.5" spans="1:11">
+    <row r="4" spans="1:11">
       <c r="A4" s="6" t="s">
         <v>12</v>
       </c>
@@ -3689,7 +3804,7 @@
       <c r="J4" s="16"/>
       <c r="K4" s="15"/>
     </row>
-    <row r="5" ht="16.5" spans="1:11">
+    <row r="5" spans="1:11">
       <c r="A5" s="6" t="s">
         <v>16</v>
       </c>
@@ -3710,7 +3825,7 @@
       <c r="J5" s="16"/>
       <c r="K5" s="15"/>
     </row>
-    <row r="6" ht="16.5" spans="1:11">
+    <row r="6" spans="1:11">
       <c r="A6" s="6" t="s">
         <v>20</v>
       </c>
@@ -3731,7 +3846,7 @@
       <c r="J6" s="16"/>
       <c r="K6" s="15"/>
     </row>
-    <row r="7" ht="16.5" spans="1:11">
+    <row r="7" spans="1:11">
       <c r="A7" s="6" t="s">
         <v>24</v>
       </c>
@@ -3752,7 +3867,7 @@
       <c r="J7" s="16"/>
       <c r="K7" s="15"/>
     </row>
-    <row r="8" ht="16.5" spans="1:11">
+    <row r="8" spans="1:11">
       <c r="A8" s="6" t="s">
         <v>28</v>
       </c>
@@ -3773,7 +3888,7 @@
       <c r="J8" s="16"/>
       <c r="K8" s="15"/>
     </row>
-    <row r="9" ht="16.5" spans="1:11">
+    <row r="9" spans="1:11">
       <c r="A9" s="6" t="s">
         <v>32</v>
       </c>
@@ -3794,7 +3909,7 @@
       <c r="J9" s="17"/>
       <c r="K9" s="15"/>
     </row>
-    <row r="10" ht="16.5" spans="1:11">
+    <row r="10" spans="1:11">
       <c r="A10" s="6" t="s">
         <v>36</v>
       </c>
@@ -3815,7 +3930,7 @@
       <c r="J10" s="17"/>
       <c r="K10" s="15"/>
     </row>
-    <row r="11" ht="16.5" spans="1:11">
+    <row r="11" spans="1:11">
       <c r="A11" s="6" t="s">
         <v>40</v>
       </c>
@@ -3836,7 +3951,7 @@
       <c r="J11" s="17"/>
       <c r="K11" s="15"/>
     </row>
-    <row r="12" ht="16.5" spans="1:11">
+    <row r="12" spans="1:11">
       <c r="A12" s="6" t="s">
         <v>44</v>
       </c>
@@ -3857,7 +3972,7 @@
       <c r="J12" s="16"/>
       <c r="K12" s="15"/>
     </row>
-    <row r="13" ht="16.5" spans="1:11">
+    <row r="13" spans="1:11">
       <c r="A13" s="6" t="s">
         <v>48</v>
       </c>
@@ -3878,7 +3993,7 @@
       <c r="J13" s="16"/>
       <c r="K13" s="15"/>
     </row>
-    <row r="14" ht="16.5" spans="1:11">
+    <row r="14" spans="1:11">
       <c r="A14" s="6" t="s">
         <v>52</v>
       </c>
@@ -3899,7 +4014,7 @@
       <c r="J14" s="16"/>
       <c r="K14" s="15"/>
     </row>
-    <row r="15" ht="16.5" spans="1:11">
+    <row r="15" spans="1:11">
       <c r="A15" s="6" t="s">
         <v>56</v>
       </c>
@@ -3920,7 +4035,7 @@
       <c r="J15" s="16"/>
       <c r="K15" s="15"/>
     </row>
-    <row r="16" ht="16.5" spans="1:11">
+    <row r="16" spans="1:11">
       <c r="A16" s="6" t="s">
         <v>60</v>
       </c>
@@ -3941,7 +4056,7 @@
       <c r="J16" s="17"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" ht="16.5" spans="1:11">
+    <row r="17" spans="1:11">
       <c r="A17" s="6" t="s">
         <v>64</v>
       </c>
@@ -3962,7 +4077,7 @@
       <c r="J17" s="16"/>
       <c r="K17" s="15"/>
     </row>
-    <row r="18" ht="16.5" spans="1:11">
+    <row r="18" spans="1:11">
       <c r="A18" s="6" t="s">
         <v>68</v>
       </c>
@@ -3983,7 +4098,7 @@
       <c r="J18" s="17"/>
       <c r="K18" s="15"/>
     </row>
-    <row r="19" ht="30" spans="1:11">
+    <row r="19" spans="1:11">
       <c r="A19" s="6" t="s">
         <v>72</v>
       </c>
@@ -4004,7 +4119,7 @@
       <c r="J19" s="16"/>
       <c r="K19" s="15"/>
     </row>
-    <row r="20" ht="16.5" spans="1:11">
+    <row r="20" spans="1:11">
       <c r="A20" s="6" t="s">
         <v>76</v>
       </c>
@@ -4025,7 +4140,7 @@
       <c r="J20" s="16"/>
       <c r="K20" s="15"/>
     </row>
-    <row r="21" ht="16.5" spans="1:11">
+    <row r="21" spans="1:11">
       <c r="A21" s="6" t="s">
         <v>80</v>
       </c>
@@ -4046,7 +4161,7 @@
       <c r="J21" s="16"/>
       <c r="K21" s="15"/>
     </row>
-    <row r="22" ht="16.5" spans="1:11">
+    <row r="22" spans="1:11">
       <c r="A22" s="6" t="s">
         <v>84</v>
       </c>
@@ -4067,7 +4182,7 @@
       <c r="J22" s="5"/>
       <c r="K22" s="15"/>
     </row>
-    <row r="23" ht="16.5" spans="1:11">
+    <row r="23" spans="1:11">
       <c r="A23" s="6" t="s">
         <v>88</v>
       </c>
@@ -4088,7 +4203,7 @@
       <c r="J23" s="17"/>
       <c r="K23" s="15"/>
     </row>
-    <row r="24" ht="16.5" spans="1:11">
+    <row r="24" spans="1:11">
       <c r="A24" s="6" t="s">
         <v>92</v>
       </c>
@@ -4109,7 +4224,7 @@
       <c r="J24" s="16"/>
       <c r="K24" s="15"/>
     </row>
-    <row r="25" ht="16.5" spans="1:11">
+    <row r="25" spans="1:11">
       <c r="A25" s="6" t="s">
         <v>96</v>
       </c>
@@ -4130,7 +4245,7 @@
       <c r="J25" s="17"/>
       <c r="K25" s="15"/>
     </row>
-    <row r="26" ht="16.5" spans="1:11">
+    <row r="26" spans="1:11">
       <c r="A26" s="14" t="s">
         <v>100</v>
       </c>
@@ -4151,7 +4266,7 @@
       <c r="J26" s="16"/>
       <c r="K26" s="15"/>
     </row>
-    <row r="27" ht="16.5" spans="1:11">
+    <row r="27" spans="1:11">
       <c r="A27" s="14" t="s">
         <v>104</v>
       </c>
@@ -4172,7 +4287,7 @@
       <c r="J27" s="16"/>
       <c r="K27" s="15"/>
     </row>
-    <row r="28" ht="16.5" spans="1:11">
+    <row r="28" spans="1:11">
       <c r="A28" s="14" t="s">
         <v>108</v>
       </c>
@@ -4193,7 +4308,7 @@
       <c r="J28" s="17"/>
       <c r="K28" s="15"/>
     </row>
-    <row r="29" ht="16.5" spans="1:11">
+    <row r="29" spans="1:11">
       <c r="A29" s="14" t="s">
         <v>112</v>
       </c>
@@ -4214,7 +4329,7 @@
       <c r="J29" s="16"/>
       <c r="K29" s="15"/>
     </row>
-    <row r="30" ht="16.5" spans="1:11">
+    <row r="30" spans="1:11">
       <c r="A30" s="14" t="s">
         <v>116</v>
       </c>
@@ -4235,7 +4350,7 @@
       <c r="J30" s="16"/>
       <c r="K30" s="15"/>
     </row>
-    <row r="31" ht="16.5" spans="1:11">
+    <row r="31" spans="1:11">
       <c r="A31" s="6" t="s">
         <v>120</v>
       </c>
@@ -4256,7 +4371,7 @@
       <c r="J31" s="16"/>
       <c r="K31" s="15"/>
     </row>
-    <row r="32" ht="16.5" spans="1:11">
+    <row r="32" spans="1:11">
       <c r="A32" s="6" t="s">
         <v>124</v>
       </c>
@@ -4277,7 +4392,7 @@
       <c r="J32" s="16"/>
       <c r="K32" s="15"/>
     </row>
-    <row r="33" ht="16.5" spans="1:11">
+    <row r="33" spans="1:11">
       <c r="A33" s="6" t="s">
         <v>128</v>
       </c>
@@ -4298,7 +4413,7 @@
       <c r="J33" s="16"/>
       <c r="K33" s="15"/>
     </row>
-    <row r="34" ht="16.5" spans="1:11">
+    <row r="34" spans="1:11">
       <c r="A34" s="6" t="s">
         <v>132</v>
       </c>
@@ -4319,7 +4434,7 @@
       <c r="J34" s="16"/>
       <c r="K34" s="15"/>
     </row>
-    <row r="35" ht="16.5" spans="1:11">
+    <row r="35" spans="1:11">
       <c r="A35" s="6" t="s">
         <v>136</v>
       </c>
@@ -4340,7 +4455,7 @@
       <c r="J35" s="16"/>
       <c r="K35" s="15"/>
     </row>
-    <row r="36" ht="29.25" spans="1:11">
+    <row r="36" spans="1:11">
       <c r="A36" s="6" t="s">
         <v>140</v>
       </c>
@@ -4361,7 +4476,7 @@
       <c r="J36" s="16"/>
       <c r="K36" s="15"/>
     </row>
-    <row r="37" ht="16.5" spans="1:11">
+    <row r="37" spans="1:11">
       <c r="A37" s="6" t="s">
         <v>144</v>
       </c>
@@ -4382,7 +4497,7 @@
       <c r="J37" s="16"/>
       <c r="K37" s="15"/>
     </row>
-    <row r="38" ht="16.5" spans="1:11">
+    <row r="38" spans="1:11">
       <c r="A38" s="6" t="s">
         <v>148</v>
       </c>
@@ -4403,7 +4518,7 @@
       <c r="J38" s="17"/>
       <c r="K38" s="15"/>
     </row>
-    <row r="39" ht="16.5" spans="1:11">
+    <row r="39" spans="1:11">
       <c r="A39" s="14" t="s">
         <v>152</v>
       </c>
@@ -4424,7 +4539,7 @@
       <c r="J39" s="16"/>
       <c r="K39" s="15"/>
     </row>
-    <row r="40" ht="16.5" spans="1:11">
+    <row r="40" spans="1:11">
       <c r="A40" s="6" t="s">
         <v>156</v>
       </c>
@@ -4445,7 +4560,7 @@
       <c r="J40" s="16"/>
       <c r="K40" s="15"/>
     </row>
-    <row r="41" ht="16.5" spans="1:11">
+    <row r="41" spans="1:11">
       <c r="A41" s="6" t="s">
         <v>160</v>
       </c>
@@ -4466,7 +4581,7 @@
       <c r="J41" s="16"/>
       <c r="K41" s="15"/>
     </row>
-    <row r="42" ht="16.5" spans="1:11">
+    <row r="42" spans="1:11">
       <c r="A42" s="6" t="s">
         <v>164</v>
       </c>
@@ -4487,7 +4602,7 @@
       <c r="J42" s="16"/>
       <c r="K42" s="15"/>
     </row>
-    <row r="43" ht="16.5" spans="1:11">
+    <row r="43" spans="1:11">
       <c r="A43" s="6" t="s">
         <v>168</v>
       </c>
@@ -4508,7 +4623,7 @@
       <c r="J43" s="17"/>
       <c r="K43" s="15"/>
     </row>
-    <row r="44" ht="16.5" spans="1:11">
+    <row r="44" spans="1:11">
       <c r="A44" s="6" t="s">
         <v>170</v>
       </c>
@@ -4529,7 +4644,7 @@
       <c r="J44" s="16"/>
       <c r="K44" s="15"/>
     </row>
-    <row r="45" ht="16.5" spans="1:11">
+    <row r="45" spans="1:11">
       <c r="A45" s="6" t="s">
         <v>174</v>
       </c>
@@ -4550,7 +4665,7 @@
       <c r="J45" s="16"/>
       <c r="K45" s="15"/>
     </row>
-    <row r="46" ht="16.5" spans="1:11">
+    <row r="46" spans="1:11">
       <c r="A46" s="6" t="s">
         <v>178</v>
       </c>
@@ -4571,7 +4686,7 @@
       <c r="J46" s="16"/>
       <c r="K46" s="15"/>
     </row>
-    <row r="47" ht="16.5" spans="1:11">
+    <row r="47" spans="1:11">
       <c r="A47" s="6" t="s">
         <v>182</v>
       </c>
@@ -4592,7 +4707,7 @@
       <c r="J47" s="16"/>
       <c r="K47" s="15"/>
     </row>
-    <row r="48" ht="16.5" spans="1:11">
+    <row r="48" spans="1:11">
       <c r="A48" s="6" t="s">
         <v>186</v>
       </c>
@@ -4613,7 +4728,7 @@
       <c r="J48" s="17"/>
       <c r="K48" s="15"/>
     </row>
-    <row r="49" ht="16.5" spans="1:11">
+    <row r="49" spans="1:11">
       <c r="A49" s="6" t="s">
         <v>190</v>
       </c>
@@ -4634,7 +4749,7 @@
       <c r="J49" s="16"/>
       <c r="K49" s="15"/>
     </row>
-    <row r="50" ht="16.5" spans="1:11">
+    <row r="50" spans="1:11">
       <c r="A50" s="6" t="s">
         <v>194</v>
       </c>
@@ -4655,7 +4770,7 @@
       <c r="J50" s="17"/>
       <c r="K50" s="15"/>
     </row>
-    <row r="51" ht="16.5" spans="1:11">
+    <row r="51" spans="1:11">
       <c r="A51" s="14" t="s">
         <v>198</v>
       </c>
@@ -4676,7 +4791,7 @@
       <c r="J51" s="16"/>
       <c r="K51" s="15"/>
     </row>
-    <row r="52" ht="16.5" spans="1:11">
+    <row r="52" spans="1:11">
       <c r="A52" s="14" t="s">
         <v>202</v>
       </c>
@@ -4697,7 +4812,7 @@
       <c r="J52" s="16"/>
       <c r="K52" s="15"/>
     </row>
-    <row r="53" ht="32.25" spans="1:11">
+    <row r="53" ht="31.5" spans="1:11">
       <c r="A53" s="14" t="s">
         <v>206</v>
       </c>
@@ -4718,7 +4833,7 @@
       <c r="J53" s="16"/>
       <c r="K53" s="15"/>
     </row>
-    <row r="54" ht="30" spans="1:11">
+    <row r="54" spans="1:11">
       <c r="A54" s="14" t="s">
         <v>210</v>
       </c>
@@ -4739,7 +4854,7 @@
       <c r="J54" s="16"/>
       <c r="K54" s="15"/>
     </row>
-    <row r="55" ht="16.5" spans="1:11">
+    <row r="55" spans="1:11">
       <c r="A55" s="14" t="s">
         <v>214</v>
       </c>
@@ -4760,7 +4875,7 @@
       <c r="J55" s="16"/>
       <c r="K55" s="15"/>
     </row>
-    <row r="56" ht="16.5" spans="1:11">
+    <row r="56" spans="1:11">
       <c r="A56" s="6" t="s">
         <v>218</v>
       </c>
@@ -4781,7 +4896,7 @@
       <c r="J56" s="16"/>
       <c r="K56" s="15"/>
     </row>
-    <row r="57" ht="16.5" spans="1:11">
+    <row r="57" spans="1:11">
       <c r="A57" s="6" t="s">
         <v>222</v>
       </c>
@@ -4802,7 +4917,7 @@
       <c r="J57" s="16"/>
       <c r="K57" s="15"/>
     </row>
-    <row r="58" ht="16.5" spans="1:11">
+    <row r="58" spans="1:11">
       <c r="A58" s="6" t="s">
         <v>226</v>
       </c>
@@ -4823,7 +4938,7 @@
       <c r="J58" s="16"/>
       <c r="K58" s="15"/>
     </row>
-    <row r="59" ht="16.5" spans="1:11">
+    <row r="59" spans="1:11">
       <c r="A59" s="6" t="s">
         <v>230</v>
       </c>
@@ -4844,7 +4959,7 @@
       <c r="J59" s="16"/>
       <c r="K59" s="15"/>
     </row>
-    <row r="60" ht="16.5" spans="1:11">
+    <row r="60" spans="1:11">
       <c r="A60" s="6" t="s">
         <v>234</v>
       </c>
@@ -4865,7 +4980,7 @@
       <c r="J60" s="16"/>
       <c r="K60" s="15"/>
     </row>
-    <row r="61" ht="16.5" spans="1:11">
+    <row r="61" spans="1:11">
       <c r="A61" s="6" t="s">
         <v>238</v>
       </c>
@@ -4886,7 +5001,7 @@
       <c r="J61" s="16"/>
       <c r="K61" s="15"/>
     </row>
-    <row r="62" ht="16.5" spans="1:11">
+    <row r="62" spans="1:11">
       <c r="A62" s="6" t="s">
         <v>242</v>
       </c>
@@ -4907,7 +5022,7 @@
       <c r="J62" s="16"/>
       <c r="K62" s="15"/>
     </row>
-    <row r="63" ht="16.5" spans="1:11">
+    <row r="63" spans="1:11">
       <c r="A63" s="6" t="s">
         <v>246</v>
       </c>
@@ -4928,7 +5043,7 @@
       <c r="J63" s="16"/>
       <c r="K63" s="15"/>
     </row>
-    <row r="64" ht="16.5" spans="1:11">
+    <row r="64" spans="1:11">
       <c r="A64" s="6" t="s">
         <v>250</v>
       </c>
@@ -4949,7 +5064,7 @@
       <c r="J64" s="16"/>
       <c r="K64" s="15"/>
     </row>
-    <row r="65" ht="30" spans="1:11">
+    <row r="65" spans="1:11">
       <c r="A65" s="6" t="s">
         <v>254</v>
       </c>
@@ -4970,7 +5085,7 @@
       <c r="J65" s="16"/>
       <c r="K65" s="15"/>
     </row>
-    <row r="66" ht="16.5" spans="1:11">
+    <row r="66" spans="1:11">
       <c r="A66" s="6" t="s">
         <v>258</v>
       </c>
@@ -4991,7 +5106,7 @@
       <c r="J66" s="16"/>
       <c r="K66" s="15"/>
     </row>
-    <row r="67" ht="16.5" spans="1:11">
+    <row r="67" spans="1:11">
       <c r="A67" s="6" t="s">
         <v>262</v>
       </c>
@@ -5012,7 +5127,7 @@
       <c r="J67" s="16"/>
       <c r="K67" s="15"/>
     </row>
-    <row r="68" ht="16.5" spans="1:11">
+    <row r="68" spans="1:11">
       <c r="A68" s="6" t="s">
         <v>266</v>
       </c>
@@ -5033,7 +5148,7 @@
       <c r="J68" s="16"/>
       <c r="K68" s="15"/>
     </row>
-    <row r="69" ht="16.5" spans="1:11">
+    <row r="69" spans="1:11">
       <c r="A69" s="6" t="s">
         <v>270</v>
       </c>
@@ -5054,7 +5169,7 @@
       <c r="J69" s="16"/>
       <c r="K69" s="15"/>
     </row>
-    <row r="70" ht="16.5" spans="1:11">
+    <row r="70" spans="1:11">
       <c r="A70" s="6" t="s">
         <v>274</v>
       </c>
@@ -5075,7 +5190,7 @@
       <c r="J70" s="17"/>
       <c r="K70" s="15"/>
     </row>
-    <row r="71" ht="16.5" spans="1:11">
+    <row r="71" spans="1:11">
       <c r="A71" s="6" t="s">
         <v>278</v>
       </c>
@@ -5096,7 +5211,7 @@
       <c r="J71" s="16"/>
       <c r="K71" s="15"/>
     </row>
-    <row r="72" ht="16.5" spans="1:11">
+    <row r="72" spans="1:11">
       <c r="A72" s="14" t="s">
         <v>282</v>
       </c>
@@ -5117,7 +5232,7 @@
       <c r="J72" s="16"/>
       <c r="K72" s="15"/>
     </row>
-    <row r="73" ht="16.5" spans="1:11">
+    <row r="73" spans="1:11">
       <c r="A73" s="14" t="s">
         <v>286</v>
       </c>
@@ -5138,7 +5253,7 @@
       <c r="J73" s="16"/>
       <c r="K73" s="15"/>
     </row>
-    <row r="74" ht="16.5" spans="1:11">
+    <row r="74" spans="1:11">
       <c r="A74" s="14" t="s">
         <v>290</v>
       </c>
@@ -5159,7 +5274,7 @@
       <c r="J74" s="16"/>
       <c r="K74" s="15"/>
     </row>
-    <row r="75" ht="16.5" spans="1:11">
+    <row r="75" spans="1:11">
       <c r="A75" s="14" t="s">
         <v>294</v>
       </c>
@@ -5180,7 +5295,7 @@
       <c r="J75" s="16"/>
       <c r="K75" s="15"/>
     </row>
-    <row r="76" ht="16.5" spans="1:11">
+    <row r="76" spans="1:11">
       <c r="A76" s="14" t="s">
         <v>298</v>
       </c>
@@ -5201,7 +5316,7 @@
       <c r="J76" s="16"/>
       <c r="K76" s="15"/>
     </row>
-    <row r="77" ht="16.5" spans="1:11">
+    <row r="77" spans="1:11">
       <c r="A77" s="6" t="s">
         <v>302</v>
       </c>
@@ -5222,7 +5337,7 @@
       <c r="J77" s="16"/>
       <c r="K77" s="15"/>
     </row>
-    <row r="78" ht="29.25" spans="1:11">
+    <row r="78" spans="1:11">
       <c r="A78" s="6" t="s">
         <v>306</v>
       </c>
@@ -5243,7 +5358,7 @@
       <c r="J78" s="16"/>
       <c r="K78" s="15"/>
     </row>
-    <row r="79" ht="16.5" spans="1:11">
+    <row r="79" spans="1:11">
       <c r="A79" s="6" t="s">
         <v>310</v>
       </c>
@@ -5264,7 +5379,7 @@
       <c r="J79" s="17"/>
       <c r="K79" s="15"/>
     </row>
-    <row r="80" ht="16.5" spans="1:11">
+    <row r="80" spans="1:11">
       <c r="A80" s="6" t="s">
         <v>314</v>
       </c>
@@ -5285,7 +5400,7 @@
       <c r="J80" s="17"/>
       <c r="K80" s="15"/>
     </row>
-    <row r="81" ht="16.5" spans="1:11">
+    <row r="81" spans="1:11">
       <c r="A81" s="6" t="s">
         <v>318</v>
       </c>
@@ -5306,7 +5421,7 @@
       <c r="J81" s="16"/>
       <c r="K81" s="15"/>
     </row>
-    <row r="82" ht="16.5" spans="1:11">
+    <row r="82" spans="1:11">
       <c r="A82" s="6" t="s">
         <v>322</v>
       </c>
@@ -5327,7 +5442,7 @@
       <c r="J82" s="16"/>
       <c r="K82" s="15"/>
     </row>
-    <row r="83" ht="16.5" spans="1:11">
+    <row r="83" spans="1:11">
       <c r="A83" s="6" t="s">
         <v>326</v>
       </c>
@@ -5348,7 +5463,7 @@
       <c r="J83" s="16"/>
       <c r="K83" s="15"/>
     </row>
-    <row r="84" ht="30.75" spans="1:11">
+    <row r="84" spans="1:11">
       <c r="A84" s="6" t="s">
         <v>330</v>
       </c>
@@ -5369,7 +5484,7 @@
       <c r="J84" s="16"/>
       <c r="K84" s="15"/>
     </row>
-    <row r="85" ht="16.5" spans="1:11">
+    <row r="85" spans="1:11">
       <c r="A85" s="6" t="s">
         <v>334</v>
       </c>
@@ -5390,7 +5505,7 @@
       <c r="J85" s="16"/>
       <c r="K85" s="15"/>
     </row>
-    <row r="86" ht="16.5" spans="1:11">
+    <row r="86" spans="1:11">
       <c r="A86" s="6" t="s">
         <v>338</v>
       </c>
@@ -5411,7 +5526,7 @@
       <c r="J86" s="17"/>
       <c r="K86" s="15"/>
     </row>
-    <row r="87" ht="16.5" spans="1:11">
+    <row r="87" spans="1:11">
       <c r="A87" s="6" t="s">
         <v>342</v>
       </c>
@@ -5432,7 +5547,7 @@
       <c r="J87" s="16"/>
       <c r="K87" s="15"/>
     </row>
-    <row r="88" ht="16.5" spans="1:11">
+    <row r="88" spans="1:11">
       <c r="A88" s="14" t="s">
         <v>346</v>
       </c>
@@ -5453,7 +5568,7 @@
       <c r="J88" s="16"/>
       <c r="K88" s="15"/>
     </row>
-    <row r="89" ht="16.5" spans="1:11">
+    <row r="89" spans="1:11">
       <c r="A89" s="14" t="s">
         <v>350</v>
       </c>
@@ -5474,7 +5589,7 @@
       <c r="J89" s="16"/>
       <c r="K89" s="15"/>
     </row>
-    <row r="90" ht="16.5" spans="1:11">
+    <row r="90" spans="1:11">
       <c r="A90" s="6" t="s">
         <v>354</v>
       </c>
@@ -5495,7 +5610,7 @@
       <c r="J90" s="16"/>
       <c r="K90" s="15"/>
     </row>
-    <row r="91" ht="16.5" spans="1:11">
+    <row r="91" spans="1:11">
       <c r="A91" s="14" t="s">
         <v>358</v>
       </c>
@@ -5516,7 +5631,7 @@
       <c r="J91" s="17"/>
       <c r="K91" s="15"/>
     </row>
-    <row r="92" ht="16.5" spans="1:11">
+    <row r="92" spans="1:11">
       <c r="A92" s="6" t="s">
         <v>362</v>
       </c>
@@ -5537,7 +5652,7 @@
       <c r="J92" s="16"/>
       <c r="K92" s="15"/>
     </row>
-    <row r="93" ht="16.5" spans="1:11">
+    <row r="93" spans="1:11">
       <c r="A93" s="6" t="s">
         <v>366</v>
       </c>
@@ -5558,7 +5673,7 @@
       <c r="J93" s="16"/>
       <c r="K93" s="15"/>
     </row>
-    <row r="94" ht="16.5" spans="1:11">
+    <row r="94" spans="1:11">
       <c r="A94" s="6" t="s">
         <v>370</v>
       </c>
@@ -5579,7 +5694,7 @@
       <c r="J94" s="16"/>
       <c r="K94" s="15"/>
     </row>
-    <row r="95" ht="16.5" spans="1:11">
+    <row r="95" spans="1:11">
       <c r="A95" s="6" t="s">
         <v>374</v>
       </c>
@@ -5600,7 +5715,7 @@
       <c r="J95" s="16"/>
       <c r="K95" s="15"/>
     </row>
-    <row r="96" ht="16.5" spans="1:11">
+    <row r="96" spans="1:11">
       <c r="A96" s="6" t="s">
         <v>378</v>
       </c>
@@ -5621,7 +5736,7 @@
       <c r="J96" s="16"/>
       <c r="K96" s="15"/>
     </row>
-    <row r="97" ht="16.5" spans="1:11">
+    <row r="97" spans="1:11">
       <c r="A97" s="14" t="s">
         <v>379</v>
       </c>
@@ -5642,7 +5757,7 @@
       <c r="J97" s="16"/>
       <c r="K97" s="15"/>
     </row>
-    <row r="98" ht="16.5" spans="1:11">
+    <row r="98" spans="1:11">
       <c r="A98" s="6" t="s">
         <v>383</v>
       </c>
@@ -5663,7 +5778,7 @@
       <c r="J98" s="16"/>
       <c r="K98" s="15"/>
     </row>
-    <row r="99" ht="16.5" spans="1:11">
+    <row r="99" spans="1:11">
       <c r="A99" s="6" t="s">
         <v>387</v>
       </c>
@@ -5684,7 +5799,7 @@
       <c r="J99" s="16"/>
       <c r="K99" s="15"/>
     </row>
-    <row r="100" ht="16.5" spans="1:11">
+    <row r="100" spans="1:11">
       <c r="A100" s="6" t="s">
         <v>391</v>
       </c>
@@ -5705,7 +5820,7 @@
       <c r="J100" s="16"/>
       <c r="K100" s="15"/>
     </row>
-    <row r="101" ht="16.5" spans="1:11">
+    <row r="101" spans="1:11">
       <c r="A101" s="6" t="s">
         <v>395</v>
       </c>
@@ -5726,7 +5841,7 @@
       <c r="J101" s="16"/>
       <c r="K101" s="15"/>
     </row>
-    <row r="102" ht="16.5" spans="1:11">
+    <row r="102" spans="1:11">
       <c r="A102" s="6" t="s">
         <v>399</v>
       </c>
@@ -5747,7 +5862,7 @@
       <c r="J102" s="16"/>
       <c r="K102" s="15"/>
     </row>
-    <row r="103" ht="16.5" spans="1:11">
+    <row r="103" spans="1:11">
       <c r="A103" s="6" t="s">
         <v>401</v>
       </c>
@@ -5768,7 +5883,7 @@
       <c r="J103" s="16"/>
       <c r="K103" s="15"/>
     </row>
-    <row r="104" ht="16.5" spans="1:11">
+    <row r="104" spans="1:11">
       <c r="A104" s="6" t="s">
         <v>405</v>
       </c>
@@ -5789,7 +5904,7 @@
       <c r="J104" s="17"/>
       <c r="K104" s="15"/>
     </row>
-    <row r="105" ht="16.5" spans="1:11">
+    <row r="105" spans="1:11">
       <c r="A105" s="6" t="s">
         <v>409</v>
       </c>
@@ -5810,7 +5925,7 @@
       <c r="J105" s="17"/>
       <c r="K105" s="15"/>
     </row>
-    <row r="106" ht="16.5" spans="1:11">
+    <row r="106" spans="1:11">
       <c r="A106" s="6" t="s">
         <v>413</v>
       </c>
@@ -5831,7 +5946,7 @@
       <c r="J106" s="16"/>
       <c r="K106" s="15"/>
     </row>
-    <row r="107" ht="16.5" spans="1:11">
+    <row r="107" spans="1:11">
       <c r="A107" s="6" t="s">
         <v>417</v>
       </c>
@@ -5852,7 +5967,7 @@
       <c r="J107" s="16"/>
       <c r="K107" s="15"/>
     </row>
-    <row r="108" ht="16.5" spans="1:11">
+    <row r="108" spans="1:11">
       <c r="A108" s="6" t="s">
         <v>421</v>
       </c>
@@ -5873,7 +5988,7 @@
       <c r="J108" s="17"/>
       <c r="K108" s="15"/>
     </row>
-    <row r="109" ht="16.5" spans="1:11">
+    <row r="109" spans="1:11">
       <c r="A109" s="14" t="s">
         <v>425</v>
       </c>
@@ -5894,7 +6009,7 @@
       <c r="J109" s="16"/>
       <c r="K109" s="15"/>
     </row>
-    <row r="110" ht="16.5" spans="1:11">
+    <row r="110" spans="1:11">
       <c r="A110" s="6" t="s">
         <v>429</v>
       </c>
@@ -5915,7 +6030,7 @@
       <c r="J110" s="16"/>
       <c r="K110" s="15"/>
     </row>
-    <row r="111" ht="16.5" spans="1:11">
+    <row r="111" spans="1:11">
       <c r="A111" s="6" t="s">
         <v>433</v>
       </c>
@@ -5936,7 +6051,7 @@
       <c r="J111" s="16"/>
       <c r="K111" s="15"/>
     </row>
-    <row r="112" ht="16.5" spans="1:11">
+    <row r="112" spans="1:11">
       <c r="A112" s="6" t="s">
         <v>437</v>
       </c>
@@ -5957,7 +6072,7 @@
       <c r="J112" s="16"/>
       <c r="K112" s="15"/>
     </row>
-    <row r="113" ht="16.5" spans="1:11">
+    <row r="113" spans="1:11">
       <c r="A113" s="6" t="s">
         <v>441</v>
       </c>
@@ -5978,7 +6093,7 @@
       <c r="J113" s="16"/>
       <c r="K113" s="15"/>
     </row>
-    <row r="114" ht="16.5" spans="1:11">
+    <row r="114" spans="1:11">
       <c r="A114" s="6" t="s">
         <v>445</v>
       </c>
@@ -5999,7 +6114,7 @@
       <c r="J114" s="16"/>
       <c r="K114" s="15"/>
     </row>
-    <row r="115" ht="16.5" spans="1:11">
+    <row r="115" spans="1:11">
       <c r="A115" s="6" t="s">
         <v>449</v>
       </c>
@@ -6020,14 +6135,14 @@
       <c r="J115" s="17"/>
       <c r="K115" s="15"/>
     </row>
-    <row r="116" ht="16.5" spans="1:11">
+    <row r="116" spans="1:11">
       <c r="A116" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="B116" s="2" t="s">
+      <c r="B116" s="3" t="s">
         <v>454</v>
       </c>
-      <c r="C116" s="18" t="s">
+      <c r="C116" s="8" t="s">
         <v>455</v>
       </c>
       <c r="D116" s="9" t="s">
@@ -6041,14 +6156,14 @@
       <c r="J116" s="17"/>
       <c r="K116" s="15"/>
     </row>
-    <row r="117" ht="16.5" spans="1:11">
+    <row r="117" spans="1:11">
       <c r="A117" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="B117" s="2" t="s">
+      <c r="B117" s="3" t="s">
         <v>458</v>
       </c>
-      <c r="C117" s="18" t="s">
+      <c r="C117" s="8" t="s">
         <v>459</v>
       </c>
       <c r="D117" s="9" t="s">
@@ -6062,7 +6177,7 @@
       <c r="J117" s="16"/>
       <c r="K117" s="15"/>
     </row>
-    <row r="118" ht="16.5" spans="1:11">
+    <row r="118" spans="1:11">
       <c r="A118" s="6" t="s">
         <v>461</v>
       </c>
@@ -6083,7 +6198,7 @@
       <c r="J118" s="16"/>
       <c r="K118" s="15"/>
     </row>
-    <row r="119" ht="16.5" spans="1:11">
+    <row r="119" spans="1:11">
       <c r="A119" s="6" t="s">
         <v>465</v>
       </c>
@@ -6104,14 +6219,14 @@
       <c r="J119" s="16"/>
       <c r="K119" s="15"/>
     </row>
-    <row r="120" ht="16.5" spans="1:11">
+    <row r="120" spans="1:11">
       <c r="A120" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="B120" s="2" t="s">
+      <c r="B120" s="3" t="s">
         <v>470</v>
       </c>
-      <c r="C120" s="18" t="s">
+      <c r="C120" s="8" t="s">
         <v>471</v>
       </c>
       <c r="D120" s="9" t="s">
@@ -6125,14 +6240,14 @@
       <c r="J120" s="16"/>
       <c r="K120" s="15"/>
     </row>
-    <row r="121" ht="16.5" spans="1:11">
+    <row r="121" spans="1:11">
       <c r="A121" s="6" t="s">
         <v>473</v>
       </c>
-      <c r="B121" s="6" t="s">
+      <c r="B121" s="18" t="s">
         <v>474</v>
       </c>
-      <c r="C121" s="18" t="s">
+      <c r="C121" s="8" t="s">
         <v>475</v>
       </c>
       <c r="D121" s="9" t="s">
@@ -6146,14 +6261,14 @@
       <c r="J121" s="16"/>
       <c r="K121" s="15"/>
     </row>
-    <row r="122" ht="16.5" spans="1:11">
+    <row r="122" spans="1:11">
       <c r="A122" s="6" t="s">
         <v>477</v>
       </c>
-      <c r="B122" s="6" t="s">
+      <c r="B122" s="18" t="s">
         <v>478</v>
       </c>
-      <c r="C122" s="18" t="s">
+      <c r="C122" s="8" t="s">
         <v>479</v>
       </c>
       <c r="D122" s="9" t="s">
@@ -6167,14 +6282,14 @@
       <c r="J122" s="16"/>
       <c r="K122" s="15"/>
     </row>
-    <row r="123" ht="32.25" spans="1:11">
+    <row r="123" ht="31.5" spans="1:11">
       <c r="A123" s="6" t="s">
         <v>481</v>
       </c>
-      <c r="B123" s="6" t="s">
+      <c r="B123" s="18" t="s">
         <v>482</v>
       </c>
-      <c r="C123" s="18" t="s">
+      <c r="C123" s="8" t="s">
         <v>483</v>
       </c>
       <c r="D123" s="9" t="s">
@@ -6188,11 +6303,11 @@
       <c r="J123" s="16"/>
       <c r="K123" s="15"/>
     </row>
-    <row r="124" ht="16.5" spans="1:11">
+    <row r="124" spans="1:11">
       <c r="A124" s="19" t="s">
         <v>485</v>
       </c>
-      <c r="B124" s="19" t="s">
+      <c r="B124" s="20" t="s">
         <v>486</v>
       </c>
       <c r="C124" s="8" t="s">
@@ -6209,11 +6324,11 @@
       <c r="J124" s="16"/>
       <c r="K124" s="15"/>
     </row>
-    <row r="125" ht="16.5" spans="1:11">
+    <row r="125" spans="1:11">
       <c r="A125" s="19" t="s">
         <v>489</v>
       </c>
-      <c r="B125" s="19" t="s">
+      <c r="B125" s="20" t="s">
         <v>490</v>
       </c>
       <c r="C125" s="8" t="s">
@@ -6230,11 +6345,11 @@
       <c r="J125" s="16"/>
       <c r="K125" s="15"/>
     </row>
-    <row r="126" ht="16.5" spans="1:11">
+    <row r="126" spans="1:11">
       <c r="A126" s="19" t="s">
         <v>493</v>
       </c>
-      <c r="B126" s="19" t="s">
+      <c r="B126" s="20" t="s">
         <v>494</v>
       </c>
       <c r="C126" s="8" t="s">
@@ -6251,11 +6366,11 @@
       <c r="J126" s="16"/>
       <c r="K126" s="15"/>
     </row>
-    <row r="127" ht="16.5" spans="1:11">
+    <row r="127" spans="1:11">
       <c r="A127" s="19" t="s">
         <v>497</v>
       </c>
-      <c r="B127" s="19" t="s">
+      <c r="B127" s="20" t="s">
         <v>498</v>
       </c>
       <c r="C127" s="8" t="s">
@@ -6272,11 +6387,11 @@
       <c r="J127" s="16"/>
       <c r="K127" s="15"/>
     </row>
-    <row r="128" ht="16.5" spans="1:11">
+    <row r="128" spans="1:11">
       <c r="A128" s="19" t="s">
         <v>501</v>
       </c>
-      <c r="B128" s="19" t="s">
+      <c r="B128" s="20" t="s">
         <v>502</v>
       </c>
       <c r="C128" s="8" t="s">
@@ -6293,38 +6408,38 @@
       <c r="J128" s="16"/>
       <c r="K128" s="15"/>
     </row>
-    <row r="129" ht="16.5" spans="1:11">
-      <c r="A129" s="20" t="s">
+    <row r="129" spans="1:11">
+      <c r="A129" s="21" t="s">
         <v>505</v>
       </c>
-      <c r="B129" s="20" t="s">
+      <c r="B129" s="22" t="s">
         <v>506</v>
       </c>
-      <c r="C129" s="1" t="s">
+      <c r="C129" s="23" t="s">
         <v>507</v>
       </c>
       <c r="D129" s="9" t="s">
         <v>508</v>
       </c>
-      <c r="E129" s="21"/>
-      <c r="F129" s="22"/>
-      <c r="G129" s="22"/>
-      <c r="H129" s="23"/>
-      <c r="I129" s="23"/>
-      <c r="J129" s="23"/>
-      <c r="K129" s="28"/>
-    </row>
-    <row r="130" ht="16.5" spans="1:11">
-      <c r="A130" s="20" t="s">
+      <c r="E129" s="24"/>
+      <c r="F129" s="25"/>
+      <c r="G129" s="25"/>
+      <c r="H129" s="26"/>
+      <c r="I129" s="26"/>
+      <c r="J129" s="26"/>
+      <c r="K129" s="32"/>
+    </row>
+    <row r="130" spans="1:11">
+      <c r="A130" s="21" t="s">
         <v>509</v>
       </c>
-      <c r="B130" s="20" t="s">
+      <c r="B130" s="22" t="s">
         <v>510</v>
       </c>
-      <c r="C130" s="24" t="s">
+      <c r="C130" s="3" t="s">
         <v>511</v>
       </c>
-      <c r="D130" s="25" t="s">
+      <c r="D130" s="27" t="s">
         <v>512</v>
       </c>
       <c r="E130" s="15"/>
@@ -6335,17 +6450,17 @@
       <c r="J130" s="15"/>
       <c r="K130" s="15"/>
     </row>
-    <row r="131" ht="16.5" spans="1:11">
-      <c r="A131" s="20" t="s">
+    <row r="131" spans="1:11">
+      <c r="A131" s="21" t="s">
         <v>513</v>
       </c>
-      <c r="B131" s="20" t="s">
+      <c r="B131" s="22" t="s">
         <v>514</v>
       </c>
-      <c r="C131" s="24" t="s">
+      <c r="C131" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="D131" s="25" t="s">
+      <c r="D131" s="27" t="s">
         <v>516</v>
       </c>
       <c r="E131" s="15"/>
@@ -6356,17 +6471,17 @@
       <c r="J131" s="15"/>
       <c r="K131" s="15"/>
     </row>
-    <row r="132" ht="16.5" spans="1:11">
-      <c r="A132" s="20" t="s">
+    <row r="132" spans="1:11">
+      <c r="A132" s="21" t="s">
         <v>517</v>
       </c>
-      <c r="B132" s="20" t="s">
+      <c r="B132" s="22" t="s">
         <v>518</v>
       </c>
-      <c r="C132" s="26" t="s">
+      <c r="C132" s="8" t="s">
         <v>519</v>
       </c>
-      <c r="D132" s="25" t="s">
+      <c r="D132" s="27" t="s">
         <v>520</v>
       </c>
       <c r="E132" s="15"/>
@@ -6377,17 +6492,17 @@
       <c r="J132" s="15"/>
       <c r="K132" s="15"/>
     </row>
-    <row r="133" ht="16.5" spans="1:11">
-      <c r="A133" s="20" t="s">
+    <row r="133" spans="1:11">
+      <c r="A133" s="21" t="s">
         <v>521</v>
       </c>
-      <c r="B133" s="20" t="s">
+      <c r="B133" s="22" t="s">
         <v>522</v>
       </c>
-      <c r="C133" s="26" t="s">
+      <c r="C133" s="8" t="s">
         <v>523</v>
       </c>
-      <c r="D133" s="25" t="s">
+      <c r="D133" s="27" t="s">
         <v>524</v>
       </c>
       <c r="E133" s="15"/>
@@ -6398,14 +6513,14 @@
       <c r="J133" s="15"/>
       <c r="K133" s="15"/>
     </row>
-    <row r="134" ht="16.5" spans="1:11">
-      <c r="A134" s="20" t="s">
+    <row r="134" spans="1:11">
+      <c r="A134" s="21" t="s">
         <v>525</v>
       </c>
-      <c r="B134" s="20" t="s">
+      <c r="B134" s="22" t="s">
         <v>526</v>
       </c>
-      <c r="C134" s="26" t="s">
+      <c r="C134" s="8" t="s">
         <v>527</v>
       </c>
       <c r="D134" s="9" t="s">
@@ -6419,17 +6534,17 @@
       <c r="J134" s="15"/>
       <c r="K134" s="15"/>
     </row>
-    <row r="135" ht="16.5" spans="1:11">
-      <c r="A135" s="20" t="s">
+    <row r="135" spans="1:11">
+      <c r="A135" s="21" t="s">
         <v>529</v>
       </c>
-      <c r="B135" s="1" t="s">
+      <c r="B135" s="23" t="s">
         <v>530</v>
       </c>
-      <c r="C135" s="26" t="s">
+      <c r="C135" s="8" t="s">
         <v>531</v>
       </c>
-      <c r="D135" s="25" t="s">
+      <c r="D135" s="27" t="s">
         <v>532</v>
       </c>
       <c r="E135" s="15"/>
@@ -6440,14 +6555,14 @@
       <c r="J135" s="15"/>
       <c r="K135" s="15"/>
     </row>
-    <row r="136" ht="16.5" spans="1:11">
-      <c r="A136" s="20" t="s">
+    <row r="136" spans="1:11">
+      <c r="A136" s="21" t="s">
         <v>533</v>
       </c>
-      <c r="B136" s="1" t="s">
+      <c r="B136" s="23" t="s">
         <v>534</v>
       </c>
-      <c r="C136" s="26" t="s">
+      <c r="C136" s="8" t="s">
         <v>535</v>
       </c>
       <c r="D136" s="9" t="s">
@@ -6461,14 +6576,14 @@
       <c r="J136" s="15"/>
       <c r="K136" s="15"/>
     </row>
-    <row r="137" ht="16.5" spans="1:11">
-      <c r="A137" s="1" t="s">
+    <row r="137" spans="1:11">
+      <c r="A137" s="28" t="s">
         <v>537</v>
       </c>
-      <c r="B137" s="1" t="s">
+      <c r="B137" s="23" t="s">
         <v>538</v>
       </c>
-      <c r="C137" s="26" t="s">
+      <c r="C137" s="8" t="s">
         <v>539</v>
       </c>
       <c r="D137" s="9" t="s">
@@ -6482,17 +6597,17 @@
       <c r="J137" s="15"/>
       <c r="K137" s="15"/>
     </row>
-    <row r="138" ht="16.5" spans="1:11">
-      <c r="A138" s="1" t="s">
+    <row r="138" spans="1:11">
+      <c r="A138" s="28" t="s">
         <v>541</v>
       </c>
-      <c r="B138" s="1" t="s">
+      <c r="B138" s="23" t="s">
         <v>542</v>
       </c>
-      <c r="C138" s="24" t="s">
+      <c r="C138" s="3" t="s">
         <v>543</v>
       </c>
-      <c r="D138" s="25" t="s">
+      <c r="D138" s="27" t="s">
         <v>544</v>
       </c>
       <c r="E138" s="15"/>
@@ -6503,14 +6618,14 @@
       <c r="J138" s="15"/>
       <c r="K138" s="15"/>
     </row>
-    <row r="139" ht="16.5" spans="1:11">
-      <c r="A139" s="1" t="s">
+    <row r="139" spans="1:11">
+      <c r="A139" s="28" t="s">
         <v>545</v>
       </c>
-      <c r="B139" s="1" t="s">
+      <c r="B139" s="23" t="s">
         <v>546</v>
       </c>
-      <c r="C139" s="26" t="s">
+      <c r="C139" s="8" t="s">
         <v>547</v>
       </c>
       <c r="D139" s="9" t="s">
@@ -6524,17 +6639,17 @@
       <c r="J139" s="15"/>
       <c r="K139" s="15"/>
     </row>
-    <row r="140" ht="16.5" spans="1:11">
-      <c r="A140" s="1" t="s">
+    <row r="140" spans="1:11">
+      <c r="A140" s="28" t="s">
         <v>549</v>
       </c>
-      <c r="B140" s="1" t="s">
+      <c r="B140" s="23" t="s">
         <v>550</v>
       </c>
-      <c r="C140" s="24" t="s">
+      <c r="C140" s="3" t="s">
         <v>551</v>
       </c>
-      <c r="D140" s="25" t="s">
+      <c r="D140" s="27" t="s">
         <v>552</v>
       </c>
       <c r="E140" s="15"/>
@@ -6545,17 +6660,17 @@
       <c r="J140" s="15"/>
       <c r="K140" s="15"/>
     </row>
-    <row r="141" ht="16.5" spans="1:11">
-      <c r="A141" s="1" t="s">
+    <row r="141" spans="1:11">
+      <c r="A141" s="28" t="s">
         <v>553</v>
       </c>
-      <c r="B141" s="1" t="s">
+      <c r="B141" s="23" t="s">
         <v>554</v>
       </c>
-      <c r="C141" s="26" t="s">
+      <c r="C141" s="8" t="s">
         <v>555</v>
       </c>
-      <c r="D141" s="25" t="s">
+      <c r="D141" s="27" t="s">
         <v>556</v>
       </c>
       <c r="E141" s="15"/>
@@ -6566,164 +6681,214 @@
       <c r="J141" s="15"/>
       <c r="K141" s="15"/>
     </row>
-    <row r="142" ht="16.5" spans="1:4">
-      <c r="A142" s="1" t="s">
+    <row r="142" spans="1:4">
+      <c r="A142" s="28" t="s">
         <v>557</v>
       </c>
-      <c r="B142" s="1" t="s">
+      <c r="B142" s="23" t="s">
         <v>558</v>
       </c>
-      <c r="C142" s="26" t="s">
+      <c r="C142" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="D142" s="25" t="s">
+      <c r="D142" s="27" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="143" ht="16.5" spans="1:4">
-      <c r="A143" s="1" t="s">
+    <row r="143" spans="1:4">
+      <c r="A143" s="28" t="s">
         <v>561</v>
       </c>
-      <c r="B143" s="1" t="s">
+      <c r="B143" s="23" t="s">
         <v>562</v>
       </c>
-      <c r="C143" s="26" t="s">
+      <c r="C143" s="8" t="s">
         <v>563</v>
       </c>
       <c r="D143" s="9" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="144" ht="16.5" spans="1:4">
-      <c r="A144" s="1" t="s">
+    <row r="144" spans="1:4">
+      <c r="A144" s="28" t="s">
         <v>565</v>
       </c>
-      <c r="B144" s="1" t="s">
+      <c r="B144" s="23" t="s">
         <v>566</v>
       </c>
-      <c r="C144" s="26" t="s">
+      <c r="C144" s="8" t="s">
         <v>567</v>
       </c>
-      <c r="D144" s="25" t="s">
+      <c r="D144" s="27" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="145" ht="16.5" spans="1:4">
-      <c r="A145" s="1" t="s">
+    <row r="145" spans="1:4">
+      <c r="A145" s="28" t="s">
         <v>569</v>
       </c>
-      <c r="B145" s="1" t="s">
+      <c r="B145" s="23" t="s">
         <v>570</v>
       </c>
-      <c r="C145" s="26" t="s">
+      <c r="C145" s="8" t="s">
         <v>571</v>
       </c>
-      <c r="D145" s="25" t="s">
+      <c r="D145" s="27" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="146" ht="16.5" spans="1:4">
-      <c r="A146" s="27" t="s">
+    <row r="146" spans="1:4">
+      <c r="A146" s="29" t="s">
         <v>573</v>
       </c>
-      <c r="B146" s="1" t="s">
+      <c r="B146" s="23" t="s">
         <v>574</v>
       </c>
-      <c r="C146" s="26" t="s">
+      <c r="C146" s="8" t="s">
         <v>575</v>
       </c>
       <c r="D146" s="9" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="147" ht="16.5" spans="1:4">
-      <c r="A147" s="1" t="s">
+    <row r="147" spans="1:4">
+      <c r="A147" s="28" t="s">
         <v>577</v>
       </c>
-      <c r="B147" s="1" t="s">
+      <c r="B147" s="23" t="s">
         <v>578</v>
       </c>
-      <c r="C147" s="26" t="s">
+      <c r="C147" s="8" t="s">
         <v>579</v>
       </c>
       <c r="D147" s="9" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="148" ht="16.5" spans="1:4">
-      <c r="A148" s="1" t="s">
+    <row r="148" spans="1:4">
+      <c r="A148" s="28" t="s">
         <v>581</v>
       </c>
-      <c r="B148" s="1" t="s">
+      <c r="B148" s="23" t="s">
         <v>582</v>
       </c>
-      <c r="C148" s="26" t="s">
+      <c r="C148" s="8" t="s">
         <v>583</v>
       </c>
       <c r="D148" s="9" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="149" ht="16.5" spans="1:4">
-      <c r="A149" s="1" t="s">
+    <row r="149" spans="1:4">
+      <c r="A149" s="28" t="s">
         <v>585</v>
       </c>
-      <c r="B149" s="1" t="s">
+      <c r="B149" s="23" t="s">
         <v>586</v>
       </c>
-      <c r="C149" s="26" t="s">
+      <c r="C149" s="8" t="s">
         <v>587</v>
       </c>
       <c r="D149" s="9" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="150" spans="1:2">
-      <c r="A150" s="1" t="s">
+    <row r="150" spans="1:4">
+      <c r="A150" s="28" t="s">
         <v>589</v>
       </c>
-      <c r="B150" s="1" t="s">
+      <c r="B150" s="23" t="s">
         <v>590</v>
       </c>
-    </row>
-    <row r="151" spans="1:2">
-      <c r="A151" s="1" t="s">
+      <c r="C150" s="30" t="s">
         <v>591</v>
       </c>
-      <c r="B151" s="1" t="s">
+      <c r="D150" s="30" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="152" spans="1:2">
-      <c r="A152" s="1" t="s">
+    <row r="151" spans="1:4">
+      <c r="A151" s="28" t="s">
         <v>593</v>
       </c>
-      <c r="B152" s="1" t="s">
+      <c r="B151" s="23" t="s">
         <v>594</v>
       </c>
-    </row>
-    <row r="153" spans="1:2">
-      <c r="A153" s="1" t="s">
+      <c r="C151" s="30" t="s">
         <v>595</v>
       </c>
-      <c r="B153" s="1" t="s">
+      <c r="D151" s="30" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="154" spans="1:2">
-      <c r="A154" s="1" t="s">
+    <row r="152" spans="1:4">
+      <c r="A152" s="28" t="s">
         <v>597</v>
       </c>
-      <c r="B154" s="1" t="s">
+      <c r="B152" s="23" t="s">
         <v>598</v>
       </c>
-    </row>
-    <row r="155" spans="1:2">
-      <c r="A155" s="1" t="s">
+      <c r="C152" s="30" t="s">
         <v>599</v>
       </c>
-      <c r="B155" s="1" t="s">
+      <c r="D152" s="31" t="s">
         <v>600</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" s="28" t="s">
+        <v>601</v>
+      </c>
+      <c r="B153" s="23" t="s">
+        <v>602</v>
+      </c>
+      <c r="C153" s="30" t="s">
+        <v>603</v>
+      </c>
+      <c r="D153" s="31" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" s="28" t="s">
+        <v>605</v>
+      </c>
+      <c r="B154" s="23" t="s">
+        <v>606</v>
+      </c>
+      <c r="C154" s="30" t="s">
+        <v>607</v>
+      </c>
+      <c r="D154" s="31" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" s="28" t="s">
+        <v>609</v>
+      </c>
+      <c r="B155" s="23" t="s">
+        <v>610</v>
+      </c>
+      <c r="C155" s="30" t="s">
+        <v>611</v>
+      </c>
+      <c r="D155" s="30" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" s="6" t="s">
+        <v>613</v>
+      </c>
+      <c r="B156" s="7" t="s">
+        <v>614</v>
+      </c>
+      <c r="C156" s="30" t="s">
+        <v>615</v>
+      </c>
+      <c r="D156" s="31" t="s">
+        <v>616</v>
       </c>
     </row>
   </sheetData>

--- a/src/common/message.xlsx
+++ b/src/common/message.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="617">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="621">
   <si>
     <t>MessageCode</t>
   </si>
@@ -2402,6 +2402,34 @@
         <charset val="134"/>
       </rPr>
       <t>该商店最多可提供20种产品 / 1次</t>
+    </r>
+  </si>
+  <si>
+    <t>DELETE_FROM_CART</t>
+  </si>
+  <si>
+    <t>Đã xoá sản phẩm khỏi giỏ hàng</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Deleted products from the cart</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>从购物车中删除产品</t>
     </r>
   </si>
 </sst>
@@ -2803,7 +2831,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -2823,6 +2851,21 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2950,7 +2993,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2962,34 +3005,34 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3074,7 +3117,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3132,21 +3175,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
@@ -3162,15 +3193,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -3705,10 +3737,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K156"/>
+  <dimension ref="A1:K157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A152" workbookViewId="0">
+      <selection activeCell="C161" sqref="C161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15.75"/>
@@ -6304,10 +6336,10 @@
       <c r="K123" s="15"/>
     </row>
     <row r="124" spans="1:11">
-      <c r="A124" s="19" t="s">
+      <c r="A124" s="6" t="s">
         <v>485</v>
       </c>
-      <c r="B124" s="20" t="s">
+      <c r="B124" s="18" t="s">
         <v>486</v>
       </c>
       <c r="C124" s="8" t="s">
@@ -6325,10 +6357,10 @@
       <c r="K124" s="15"/>
     </row>
     <row r="125" spans="1:11">
-      <c r="A125" s="19" t="s">
+      <c r="A125" s="6" t="s">
         <v>489</v>
       </c>
-      <c r="B125" s="20" t="s">
+      <c r="B125" s="18" t="s">
         <v>490</v>
       </c>
       <c r="C125" s="8" t="s">
@@ -6346,10 +6378,10 @@
       <c r="K125" s="15"/>
     </row>
     <row r="126" spans="1:11">
-      <c r="A126" s="19" t="s">
+      <c r="A126" s="6" t="s">
         <v>493</v>
       </c>
-      <c r="B126" s="20" t="s">
+      <c r="B126" s="18" t="s">
         <v>494</v>
       </c>
       <c r="C126" s="8" t="s">
@@ -6367,10 +6399,10 @@
       <c r="K126" s="15"/>
     </row>
     <row r="127" spans="1:11">
-      <c r="A127" s="19" t="s">
+      <c r="A127" s="6" t="s">
         <v>497</v>
       </c>
-      <c r="B127" s="20" t="s">
+      <c r="B127" s="18" t="s">
         <v>498</v>
       </c>
       <c r="C127" s="8" t="s">
@@ -6388,10 +6420,10 @@
       <c r="K127" s="15"/>
     </row>
     <row r="128" spans="1:11">
-      <c r="A128" s="19" t="s">
+      <c r="A128" s="6" t="s">
         <v>501</v>
       </c>
-      <c r="B128" s="20" t="s">
+      <c r="B128" s="18" t="s">
         <v>502</v>
       </c>
       <c r="C128" s="8" t="s">
@@ -6409,37 +6441,37 @@
       <c r="K128" s="15"/>
     </row>
     <row r="129" spans="1:11">
-      <c r="A129" s="21" t="s">
+      <c r="A129" s="19" t="s">
         <v>505</v>
       </c>
-      <c r="B129" s="22" t="s">
+      <c r="B129" s="18" t="s">
         <v>506</v>
       </c>
-      <c r="C129" s="23" t="s">
+      <c r="C129" s="3" t="s">
         <v>507</v>
       </c>
       <c r="D129" s="9" t="s">
         <v>508</v>
       </c>
-      <c r="E129" s="24"/>
-      <c r="F129" s="25"/>
-      <c r="G129" s="25"/>
-      <c r="H129" s="26"/>
-      <c r="I129" s="26"/>
-      <c r="J129" s="26"/>
-      <c r="K129" s="32"/>
+      <c r="E129" s="20"/>
+      <c r="F129" s="21"/>
+      <c r="G129" s="21"/>
+      <c r="H129" s="22"/>
+      <c r="I129" s="22"/>
+      <c r="J129" s="22"/>
+      <c r="K129" s="29"/>
     </row>
     <row r="130" spans="1:11">
-      <c r="A130" s="21" t="s">
+      <c r="A130" s="19" t="s">
         <v>509</v>
       </c>
-      <c r="B130" s="22" t="s">
+      <c r="B130" s="18" t="s">
         <v>510</v>
       </c>
       <c r="C130" s="3" t="s">
         <v>511</v>
       </c>
-      <c r="D130" s="27" t="s">
+      <c r="D130" s="23" t="s">
         <v>512</v>
       </c>
       <c r="E130" s="15"/>
@@ -6451,16 +6483,16 @@
       <c r="K130" s="15"/>
     </row>
     <row r="131" spans="1:11">
-      <c r="A131" s="21" t="s">
+      <c r="A131" s="19" t="s">
         <v>513</v>
       </c>
-      <c r="B131" s="22" t="s">
+      <c r="B131" s="18" t="s">
         <v>514</v>
       </c>
       <c r="C131" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="D131" s="27" t="s">
+      <c r="D131" s="23" t="s">
         <v>516</v>
       </c>
       <c r="E131" s="15"/>
@@ -6472,16 +6504,16 @@
       <c r="K131" s="15"/>
     </row>
     <row r="132" spans="1:11">
-      <c r="A132" s="21" t="s">
+      <c r="A132" s="19" t="s">
         <v>517</v>
       </c>
-      <c r="B132" s="22" t="s">
+      <c r="B132" s="18" t="s">
         <v>518</v>
       </c>
       <c r="C132" s="8" t="s">
         <v>519</v>
       </c>
-      <c r="D132" s="27" t="s">
+      <c r="D132" s="23" t="s">
         <v>520</v>
       </c>
       <c r="E132" s="15"/>
@@ -6493,16 +6525,16 @@
       <c r="K132" s="15"/>
     </row>
     <row r="133" spans="1:11">
-      <c r="A133" s="21" t="s">
+      <c r="A133" s="19" t="s">
         <v>521</v>
       </c>
-      <c r="B133" s="22" t="s">
+      <c r="B133" s="18" t="s">
         <v>522</v>
       </c>
       <c r="C133" s="8" t="s">
         <v>523</v>
       </c>
-      <c r="D133" s="27" t="s">
+      <c r="D133" s="23" t="s">
         <v>524</v>
       </c>
       <c r="E133" s="15"/>
@@ -6514,10 +6546,10 @@
       <c r="K133" s="15"/>
     </row>
     <row r="134" spans="1:11">
-      <c r="A134" s="21" t="s">
+      <c r="A134" s="19" t="s">
         <v>525</v>
       </c>
-      <c r="B134" s="22" t="s">
+      <c r="B134" s="18" t="s">
         <v>526</v>
       </c>
       <c r="C134" s="8" t="s">
@@ -6535,16 +6567,16 @@
       <c r="K134" s="15"/>
     </row>
     <row r="135" spans="1:11">
-      <c r="A135" s="21" t="s">
+      <c r="A135" s="19" t="s">
         <v>529</v>
       </c>
-      <c r="B135" s="23" t="s">
+      <c r="B135" s="3" t="s">
         <v>530</v>
       </c>
       <c r="C135" s="8" t="s">
         <v>531</v>
       </c>
-      <c r="D135" s="27" t="s">
+      <c r="D135" s="23" t="s">
         <v>532</v>
       </c>
       <c r="E135" s="15"/>
@@ -6556,10 +6588,10 @@
       <c r="K135" s="15"/>
     </row>
     <row r="136" spans="1:11">
-      <c r="A136" s="21" t="s">
+      <c r="A136" s="19" t="s">
         <v>533</v>
       </c>
-      <c r="B136" s="23" t="s">
+      <c r="B136" s="3" t="s">
         <v>534</v>
       </c>
       <c r="C136" s="8" t="s">
@@ -6577,10 +6609,10 @@
       <c r="K136" s="15"/>
     </row>
     <row r="137" spans="1:11">
-      <c r="A137" s="28" t="s">
+      <c r="A137" s="24" t="s">
         <v>537</v>
       </c>
-      <c r="B137" s="23" t="s">
+      <c r="B137" s="3" t="s">
         <v>538</v>
       </c>
       <c r="C137" s="8" t="s">
@@ -6598,16 +6630,16 @@
       <c r="K137" s="15"/>
     </row>
     <row r="138" spans="1:11">
-      <c r="A138" s="28" t="s">
+      <c r="A138" s="24" t="s">
         <v>541</v>
       </c>
-      <c r="B138" s="23" t="s">
+      <c r="B138" s="3" t="s">
         <v>542</v>
       </c>
       <c r="C138" s="3" t="s">
         <v>543</v>
       </c>
-      <c r="D138" s="27" t="s">
+      <c r="D138" s="23" t="s">
         <v>544</v>
       </c>
       <c r="E138" s="15"/>
@@ -6619,10 +6651,10 @@
       <c r="K138" s="15"/>
     </row>
     <row r="139" spans="1:11">
-      <c r="A139" s="28" t="s">
+      <c r="A139" s="24" t="s">
         <v>545</v>
       </c>
-      <c r="B139" s="23" t="s">
+      <c r="B139" s="3" t="s">
         <v>546</v>
       </c>
       <c r="C139" s="8" t="s">
@@ -6640,16 +6672,16 @@
       <c r="K139" s="15"/>
     </row>
     <row r="140" spans="1:11">
-      <c r="A140" s="28" t="s">
+      <c r="A140" s="24" t="s">
         <v>549</v>
       </c>
-      <c r="B140" s="23" t="s">
+      <c r="B140" s="3" t="s">
         <v>550</v>
       </c>
       <c r="C140" s="3" t="s">
         <v>551</v>
       </c>
-      <c r="D140" s="27" t="s">
+      <c r="D140" s="23" t="s">
         <v>552</v>
       </c>
       <c r="E140" s="15"/>
@@ -6661,16 +6693,16 @@
       <c r="K140" s="15"/>
     </row>
     <row r="141" spans="1:11">
-      <c r="A141" s="28" t="s">
+      <c r="A141" s="24" t="s">
         <v>553</v>
       </c>
-      <c r="B141" s="23" t="s">
+      <c r="B141" s="3" t="s">
         <v>554</v>
       </c>
       <c r="C141" s="8" t="s">
         <v>555</v>
       </c>
-      <c r="D141" s="27" t="s">
+      <c r="D141" s="23" t="s">
         <v>556</v>
       </c>
       <c r="E141" s="15"/>
@@ -6682,24 +6714,24 @@
       <c r="K141" s="15"/>
     </row>
     <row r="142" spans="1:4">
-      <c r="A142" s="28" t="s">
+      <c r="A142" s="24" t="s">
         <v>557</v>
       </c>
-      <c r="B142" s="23" t="s">
+      <c r="B142" s="3" t="s">
         <v>558</v>
       </c>
       <c r="C142" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="D142" s="27" t="s">
+      <c r="D142" s="23" t="s">
         <v>560</v>
       </c>
     </row>
     <row r="143" spans="1:4">
-      <c r="A143" s="28" t="s">
+      <c r="A143" s="24" t="s">
         <v>561</v>
       </c>
-      <c r="B143" s="23" t="s">
+      <c r="B143" s="3" t="s">
         <v>562</v>
       </c>
       <c r="C143" s="8" t="s">
@@ -6710,38 +6742,38 @@
       </c>
     </row>
     <row r="144" spans="1:4">
-      <c r="A144" s="28" t="s">
+      <c r="A144" s="24" t="s">
         <v>565</v>
       </c>
-      <c r="B144" s="23" t="s">
+      <c r="B144" s="3" t="s">
         <v>566</v>
       </c>
       <c r="C144" s="8" t="s">
         <v>567</v>
       </c>
-      <c r="D144" s="27" t="s">
+      <c r="D144" s="23" t="s">
         <v>568</v>
       </c>
     </row>
     <row r="145" spans="1:4">
-      <c r="A145" s="28" t="s">
+      <c r="A145" s="24" t="s">
         <v>569</v>
       </c>
-      <c r="B145" s="23" t="s">
+      <c r="B145" s="3" t="s">
         <v>570</v>
       </c>
       <c r="C145" s="8" t="s">
         <v>571</v>
       </c>
-      <c r="D145" s="27" t="s">
+      <c r="D145" s="23" t="s">
         <v>572</v>
       </c>
     </row>
     <row r="146" spans="1:4">
-      <c r="A146" s="29" t="s">
+      <c r="A146" s="14" t="s">
         <v>573</v>
       </c>
-      <c r="B146" s="23" t="s">
+      <c r="B146" s="3" t="s">
         <v>574</v>
       </c>
       <c r="C146" s="8" t="s">
@@ -6752,10 +6784,10 @@
       </c>
     </row>
     <row r="147" spans="1:4">
-      <c r="A147" s="28" t="s">
+      <c r="A147" s="24" t="s">
         <v>577</v>
       </c>
-      <c r="B147" s="23" t="s">
+      <c r="B147" s="3" t="s">
         <v>578</v>
       </c>
       <c r="C147" s="8" t="s">
@@ -6766,10 +6798,10 @@
       </c>
     </row>
     <row r="148" spans="1:4">
-      <c r="A148" s="28" t="s">
+      <c r="A148" s="24" t="s">
         <v>581</v>
       </c>
-      <c r="B148" s="23" t="s">
+      <c r="B148" s="3" t="s">
         <v>582</v>
       </c>
       <c r="C148" s="8" t="s">
@@ -6780,10 +6812,10 @@
       </c>
     </row>
     <row r="149" spans="1:4">
-      <c r="A149" s="28" t="s">
+      <c r="A149" s="24" t="s">
         <v>585</v>
       </c>
-      <c r="B149" s="23" t="s">
+      <c r="B149" s="3" t="s">
         <v>586</v>
       </c>
       <c r="C149" s="8" t="s">
@@ -6794,101 +6826,115 @@
       </c>
     </row>
     <row r="150" spans="1:4">
-      <c r="A150" s="28" t="s">
+      <c r="A150" s="24" t="s">
         <v>589</v>
       </c>
-      <c r="B150" s="23" t="s">
+      <c r="B150" s="3" t="s">
         <v>590</v>
       </c>
-      <c r="C150" s="30" t="s">
+      <c r="C150" s="25" t="s">
         <v>591</v>
       </c>
-      <c r="D150" s="30" t="s">
+      <c r="D150" s="25" t="s">
         <v>592</v>
       </c>
     </row>
     <row r="151" spans="1:4">
-      <c r="A151" s="28" t="s">
+      <c r="A151" s="24" t="s">
         <v>593</v>
       </c>
-      <c r="B151" s="23" t="s">
+      <c r="B151" s="3" t="s">
         <v>594</v>
       </c>
-      <c r="C151" s="30" t="s">
+      <c r="C151" s="25" t="s">
         <v>595</v>
       </c>
-      <c r="D151" s="30" t="s">
+      <c r="D151" s="25" t="s">
         <v>596</v>
       </c>
     </row>
     <row r="152" spans="1:4">
-      <c r="A152" s="28" t="s">
+      <c r="A152" s="24" t="s">
         <v>597</v>
       </c>
-      <c r="B152" s="23" t="s">
+      <c r="B152" s="3" t="s">
         <v>598</v>
       </c>
-      <c r="C152" s="30" t="s">
+      <c r="C152" s="25" t="s">
         <v>599</v>
       </c>
-      <c r="D152" s="31" t="s">
+      <c r="D152" s="26" t="s">
         <v>600</v>
       </c>
     </row>
     <row r="153" spans="1:4">
-      <c r="A153" s="28" t="s">
+      <c r="A153" s="24" t="s">
         <v>601</v>
       </c>
-      <c r="B153" s="23" t="s">
+      <c r="B153" s="3" t="s">
         <v>602</v>
       </c>
-      <c r="C153" s="30" t="s">
+      <c r="C153" s="25" t="s">
         <v>603</v>
       </c>
-      <c r="D153" s="31" t="s">
+      <c r="D153" s="26" t="s">
         <v>604</v>
       </c>
     </row>
     <row r="154" spans="1:4">
-      <c r="A154" s="28" t="s">
+      <c r="A154" s="24" t="s">
         <v>605</v>
       </c>
-      <c r="B154" s="23" t="s">
+      <c r="B154" s="3" t="s">
         <v>606</v>
       </c>
-      <c r="C154" s="30" t="s">
+      <c r="C154" s="25" t="s">
         <v>607</v>
       </c>
-      <c r="D154" s="31" t="s">
+      <c r="D154" s="26" t="s">
         <v>608</v>
       </c>
     </row>
     <row r="155" spans="1:4">
-      <c r="A155" s="28" t="s">
+      <c r="A155" s="24" t="s">
         <v>609</v>
       </c>
-      <c r="B155" s="23" t="s">
+      <c r="B155" s="3" t="s">
         <v>610</v>
       </c>
-      <c r="C155" s="30" t="s">
+      <c r="C155" s="25" t="s">
         <v>611</v>
       </c>
-      <c r="D155" s="30" t="s">
+      <c r="D155" s="25" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="156" spans="1:4">
+    <row r="156" ht="16.5" spans="1:4">
       <c r="A156" s="6" t="s">
         <v>613</v>
       </c>
       <c r="B156" s="7" t="s">
         <v>614</v>
       </c>
-      <c r="C156" s="30" t="s">
+      <c r="C156" s="25" t="s">
         <v>615</v>
       </c>
-      <c r="D156" s="31" t="s">
+      <c r="D156" s="26" t="s">
         <v>616</v>
+      </c>
+    </row>
+    <row r="157" ht="16.5" spans="1:4">
+      <c r="A157" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="C157" s="27" t="s">
+        <v>619</v>
+      </c>
+      <c r="D157" s="28" t="s">
+        <v>620</v>
       </c>
     </row>
   </sheetData>
